--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -430,7 +430,11 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
   <x:conditionalFormatting sqref="A1:A10">
     <x:cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <x:formula>3</x:formula>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -430,11 +430,7 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s"/>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:conditionalFormatting sqref="A1:A10">
     <x:cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <x:formula>3</x:formula>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -137,7 +137,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -420,7 +420,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -72,37 +72,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="6">
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF0000FF"/>
-          <x:bgColor rgb="FF0000FF"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF008000"/>
-          <x:bgColor rgb="FF008000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
+  <x:dxfs count="3">
     <x:dxf>
       <x:font/>
       <x:fill>
@@ -432,13 +402,13 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:conditionalFormatting sqref="A1:A10">
-    <x:cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <x:cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <x:formula>3</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <x:cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <x:formula>2</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <x:cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <x:formula>1</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -77,7 +77,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF0000FF"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF0000FF"/>
         </x:patternFill>
       </x:fill>
@@ -87,7 +87,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF008000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF008000"/>
         </x:patternFill>
       </x:fill>
@@ -97,7 +97,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
@@ -107,7 +107,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF0000FF"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF0000FF"/>
         </x:patternFill>
       </x:fill>
@@ -117,7 +117,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF008000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF008000"/>
         </x:patternFill>
       </x:fill>
@@ -127,7 +127,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -72,12 +72,12 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="6">
+  <x:dxfs count="3">
     <x:dxf>
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF0000FF"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF0000FF"/>
         </x:patternFill>
       </x:fill>
@@ -87,7 +87,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF008000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FF008000"/>
         </x:patternFill>
       </x:fill>
@@ -97,37 +97,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF0000FF"/>
-          <x:bgColor rgb="FF0000FF"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FF008000"/>
-          <x:bgColor rgb="FF008000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
@@ -432,13 +402,13 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:conditionalFormatting sqref="A1:A10">
-    <x:cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <x:cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <x:formula>3</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <x:cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <x:formula>2</x:formula>
     </x:cfRule>
-    <x:cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <x:cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <x:formula>1</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -74,34 +74,28 @@
   </x:cellStyles>
   <x:dxfs count="3">
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FF0000FF"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FF008000"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFMultipleConditions.xlsx
@@ -389,7 +389,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
